--- a/ImillReports/Content/shift.xlsx
+++ b/ImillReports/Content/shift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <x:si>
     <x:t>Employee Id</x:t>
   </x:si>
@@ -37,163 +37,70 @@
     <x:t>Late In</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammed Abdul Jaber Abdullah Abdul Halim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Administration</x:t>
+    <x:t>Nabi sahi Harizaqi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shuwaikh</x:t>
   </x:si>
   <x:si>
     <x:t>Not Punched</x:t>
   </x:si>
   <x:si>
-    <x:t>Fatima Lahibol</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yarmouk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Abdul Samad Ali Abdul Baath</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Gate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Catherine Konones Biscucho</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Avenues</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hamza Abdul Hai Mahmoud Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jahra</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Elsa Doran Lorela</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Al-Kout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hussam al-Din, Mufti Ibrahim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nuzha</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ibrahim Muhammad Muhammad Al-Sharif</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Saeed Abdul Hamid Mohammed Saeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thahiya</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdel Halim Abdel-Gawad Mohamed Mahmoud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Khaldiya</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Walid Imran Abdul Qawi Hamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed Safwat Gad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ibrahim Abdalnaser Mahrous Abdellah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Qortuba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammad Ahmad Ibrahim Abdulmawjoud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kaifan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Philip Roy Labaonon Empic</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21 Mostafa Madkour Mohammad Rudhwan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Haisam Abdelrahmin Ali Soliman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shuhada</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Diab Saad Abdulhameed  Shahatah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zahra</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eslam Mostafa Yassin Serour</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fahmi Rubaiee Fahmi Mohammad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dasma</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wael Abd Aljaber Abdullah Alqablawi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Surra</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wajdi Ashraf Muneer Mohammad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amr Gamil Ahmed Abdelalim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bnied Al Qar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mohammad Hassan Pouladuash</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Abdulkareem Sharqawi Ali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammad saber Mohammad Othman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Hosny Ahmed Abdelsalam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdul Kader Obriwala</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Noureldin Kadri Osman Elsharkawy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdulrazeq Mohammad Salah Abdullah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salmiya</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hadh Abdulghani Abdulsabour Jad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sheik Sabeer Mahabu Basha</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Mohammad Abduldhaher Mashhour</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Mohamed Abdelrehim Abouelnaga</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Fisal Abdelkader Sharaf</x:t>
+    <x:t>Mirza Ali Hossin Pour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammad Salam Mohammad Biswas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rayhan Gabbar Mazraeh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelatty Elsayed Haroun Abdelmeguid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shabir Mohammed Ummar Sheikh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Keyoan Heidar Mazraeh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mousa Ramazan Ghoubeshi Ramezani</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salim Abdulkarim Shaikh Abdulkarim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kamun Rashid Abdul Sattar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Haitham Nabeeh Hasan Aref</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khalifa Abdelrahim Kamaly Abdelrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Abouhassiba Mohamed Sayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emmanuel Sam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yousef Yousef Hasan Amer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Syed Zishan Mehdi Syed Akbar Mahdi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nilesh K C Kalal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammed Aalam Akhtar Husain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morawala Shahrukh Sagirbhai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ibrahim Safwat Ibrahim Abdulmajeed</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -551,7 +458,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G36"/>
+  <x:dimension ref="A1:G21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -582,7 +489,7 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>7</x:v>
@@ -591,10 +498,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
+        <x:v>0.208333333333333</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
+        <x:v>0.541666666666667</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>9</x:v>
@@ -605,19 +512,19 @@
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
+        <x:v>0.208333333333333</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
+        <x:v>0.541666666666667</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>9</x:v>
@@ -628,19 +535,19 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
+        <x:v>0.208333333333333</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
+        <x:v>0.541666666666667</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>9</x:v>
@@ -651,19 +558,19 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="n">
-        <x:v>188</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
+        <x:v>0.208333333333333</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
+        <x:v>0.541666666666667</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
         <x:v>9</x:v>
@@ -674,19 +581,19 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="n">
-        <x:v>125</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
+        <x:v>0.208333333333333</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
+        <x:v>0.541666666666667</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>9</x:v>
@@ -697,19 +604,19 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
+        <x:v>0.208333333333333</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
+        <x:v>0.541666666666667</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
         <x:v>9</x:v>
@@ -720,19 +627,19 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
+        <x:v>0.208333333333333</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
+        <x:v>0.541666666666667</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
         <x:v>9</x:v>
@@ -743,19 +650,19 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
+        <x:v>0.208333333333333</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
+        <x:v>0.541666666666667</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
         <x:v>9</x:v>
@@ -766,19 +673,19 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
+        <x:v>0.208333333333333</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
+        <x:v>0.541666666666667</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
         <x:v>9</x:v>
@@ -789,19 +696,19 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
+        <x:v>0.208333333333333</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
+        <x:v>0.541666666666667</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
         <x:v>9</x:v>
@@ -812,19 +719,19 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
+        <x:v>0.208333333333333</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
+        <x:v>0.541666666666667</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
         <x:v>9</x:v>
@@ -835,19 +742,19 @@
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="n">
-        <x:v>206</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
+        <x:v>0.208333333333333</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
+        <x:v>0.541666666666667</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
         <x:v>9</x:v>
@@ -858,19 +765,19 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
+        <x:v>0.208333333333333</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
+        <x:v>0.541666666666667</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
         <x:v>9</x:v>
@@ -881,19 +788,19 @@
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
+        <x:v>0.208333333333333</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
+        <x:v>0.541666666666667</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
         <x:v>9</x:v>
@@ -904,19 +811,19 @@
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="0" t="n">
-        <x:v>189</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
+        <x:v>0.208333333333333</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
+        <x:v>0.541666666666667</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
         <x:v>9</x:v>
@@ -927,19 +834,19 @@
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
+        <x:v>0.208333333333333</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
+        <x:v>0.541666666666667</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
         <x:v>9</x:v>
@@ -950,19 +857,19 @@
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="0" t="n">
-        <x:v>191</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
+        <x:v>0.208333333333333</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
+        <x:v>0.541666666666667</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
         <x:v>9</x:v>
@@ -973,19 +880,19 @@
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
+        <x:v>0.208333333333333</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
+        <x:v>0.541666666666667</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
         <x:v>9</x:v>
@@ -996,19 +903,19 @@
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="0" t="n">
-        <x:v>203</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
+        <x:v>0.208333333333333</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
+        <x:v>0.541666666666667</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
         <x:v>9</x:v>
@@ -1019,369 +926,24 @@
     </x:row>
     <x:row r="21" spans="1:7">
       <x:c r="A21" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
+        <x:v>0.208333333333333</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
+        <x:v>0.541666666666667</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:7">
-      <x:c r="A22" s="0" t="n">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="B22" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="C22" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D22" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
-      </x:c>
-      <x:c r="E22" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
-      </x:c>
-      <x:c r="F22" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G22" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:7">
-      <x:c r="A23" s="0" t="n">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="B23" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C23" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D23" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
-      </x:c>
-      <x:c r="E23" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
-      </x:c>
-      <x:c r="F23" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G23" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:7">
-      <x:c r="A24" s="0" t="n">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="B24" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C24" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D24" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
-      </x:c>
-      <x:c r="E24" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
-      </x:c>
-      <x:c r="F24" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G24" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:7">
-      <x:c r="A25" s="0" t="n">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="B25" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C25" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D25" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
-      </x:c>
-      <x:c r="E25" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
-      </x:c>
-      <x:c r="F25" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G25" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:7">
-      <x:c r="A26" s="0" t="n">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="B26" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C26" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D26" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
-      </x:c>
-      <x:c r="E26" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
-      </x:c>
-      <x:c r="F26" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G26" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:7">
-      <x:c r="A27" s="0" t="n">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="B27" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C27" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D27" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
-      </x:c>
-      <x:c r="E27" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
-      </x:c>
-      <x:c r="F27" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G27" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:7">
-      <x:c r="A28" s="0" t="n">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="B28" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C28" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D28" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
-      </x:c>
-      <x:c r="E28" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
-      </x:c>
-      <x:c r="F28" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G28" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:7">
-      <x:c r="A29" s="0" t="n">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="B29" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C29" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D29" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
-      </x:c>
-      <x:c r="E29" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
-      </x:c>
-      <x:c r="F29" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G29" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:7">
-      <x:c r="A30" s="0" t="n">
-        <x:v>209</x:v>
-      </x:c>
-      <x:c r="B30" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C30" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D30" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
-      </x:c>
-      <x:c r="E30" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
-      </x:c>
-      <x:c r="F30" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G30" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:7">
-      <x:c r="A31" s="0" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B31" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C31" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D31" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
-      </x:c>
-      <x:c r="E31" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
-      </x:c>
-      <x:c r="F31" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G31" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:7">
-      <x:c r="A32" s="0" t="n">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B32" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C32" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D32" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
-      </x:c>
-      <x:c r="E32" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
-      </x:c>
-      <x:c r="F32" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G32" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:7">
-      <x:c r="A33" s="0" t="n">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B33" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C33" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D33" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
-      </x:c>
-      <x:c r="E33" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
-      </x:c>
-      <x:c r="F33" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G33" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:7">
-      <x:c r="A34" s="0" t="n">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B34" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="C34" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D34" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
-      </x:c>
-      <x:c r="E34" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
-      </x:c>
-      <x:c r="F34" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G34" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:7">
-      <x:c r="A35" s="0" t="n">
-        <x:v>214</x:v>
-      </x:c>
-      <x:c r="B35" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C35" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D35" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
-      </x:c>
-      <x:c r="E35" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
-      </x:c>
-      <x:c r="F35" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G35" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:7">
-      <x:c r="A36" s="0" t="n">
-        <x:v>216</x:v>
-      </x:c>
-      <x:c r="B36" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C36" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D36" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
-      </x:c>
-      <x:c r="E36" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
-      </x:c>
-      <x:c r="F36" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G36" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/ImillReports/Content/shift.xlsx
+++ b/ImillReports/Content/shift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <x:si>
     <x:t>Employee Id</x:t>
   </x:si>
@@ -37,13 +37,22 @@
     <x:t>Late In</x:t>
   </x:si>
   <x:si>
-    <x:t>Princess May Villanueva Rosales</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ardiya</x:t>
+    <x:t>Maysara Saleh Mohammad Abdulhafedh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Administration</x:t>
   </x:si>
   <x:si>
     <x:t>Not Punched</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohammad Hassan Pouladuash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Abdulkareem Sharqawi Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammad saber Mohammad Othman</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -401,7 +410,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G2"/>
+  <x:dimension ref="A1:G5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -432,7 +441,7 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="n">
-        <x:v>144</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>7</x:v>
@@ -441,15 +450,84 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>0.25</x:v>
+        <x:v>0.333333333333333</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>0.583333333333333</x:v>
+        <x:v>0.666666666666667</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="A3" s="0" t="n">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="n">
+        <x:v>0.333333333333333</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="n">
+        <x:v>0.666666666666667</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="A4" s="0" t="n">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="n">
+        <x:v>0.333333333333333</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="n">
+        <x:v>0.666666666666667</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7">
+      <x:c r="A5" s="0" t="n">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="n">
+        <x:v>0.333333333333333</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="n">
+        <x:v>0.666666666666667</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G5" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/ImillReports/Content/shift.xlsx
+++ b/ImillReports/Content/shift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <x:si>
     <x:t>Employee Id</x:t>
   </x:si>
@@ -25,6 +25,9 @@
     <x:t>Location</x:t>
   </x:si>
   <x:si>
+    <x:t>Device</x:t>
+  </x:si>
+  <x:si>
     <x:t>Shift Start</x:t>
   </x:si>
   <x:si>
@@ -37,22 +40,25 @@
     <x:t>Late In</x:t>
   </x:si>
   <x:si>
-    <x:t>Maysara Saleh Mohammad Abdulhafedh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Administration</x:t>
+    <x:t>Zain Alaaabdin Hasan Mahmoud Alsayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>العارضية</x:t>
+  </x:si>
+  <x:si>
+    <x:t>الادارة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sahrukh Ahmedbhai Patel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ardiya</x:t>
   </x:si>
   <x:si>
     <x:t>Not Punched</x:t>
   </x:si>
   <x:si>
-    <x:t>mohammad Hassan Pouladuash</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Abdulkareem Sharqawi Ali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammad saber Mohammad Othman</x:t>
+    <x:t>Ibrahim Abu Aloyoun Kamel Mohammad</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -410,13 +416,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G5"/>
+  <x:dimension ref="A1:H4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:7">
+    <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -438,96 +444,79 @@
       <x:c r="G1" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:7">
+    <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="n">
-        <x:v>115</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>0.916666666666667</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="n">
+        <x:v>0.25</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
+        <x:v>0.430636574074074</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="n">
+        <x:v>0.0139699074074074</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" s="0" t="n">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="n">
+        <x:v>0.916666666666667</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="n">
+        <x:v>0.25</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:7">
-      <x:c r="A3" s="0" t="n">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D3" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:7">
+    <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="n">
-        <x:v>119</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G4" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:7">
-      <x:c r="A5" s="0" t="n">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D5" s="1" t="n">
-        <x:v>0.333333333333333</x:v>
-      </x:c>
-      <x:c r="E5" s="1" t="n">
-        <x:v>0.666666666666667</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G5" s="1" t="n">
+        <x:v>0.916666666666667</x:v>
+      </x:c>
+      <x:c r="F4" s="1" t="n">
+        <x:v>0.25</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H4" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/ImillReports/Content/shift.xlsx
+++ b/ImillReports/Content/shift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <x:si>
     <x:t>Employee Id</x:t>
   </x:si>
@@ -40,25 +40,13 @@
     <x:t>Late In</x:t>
   </x:si>
   <x:si>
-    <x:t>Zain Alaaabdin Hasan Mahmoud Alsayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>العارضية</x:t>
-  </x:si>
-  <x:si>
-    <x:t>الادارة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sahrukh Ahmedbhai Patel</x:t>
+    <x:t>Ibrahim Abu Aloyoun Kamel Mohammad</x:t>
   </x:si>
   <x:si>
     <x:t>Ardiya</x:t>
   </x:si>
   <x:si>
     <x:t>Not Punched</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ibrahim Abu Aloyoun Kamel Mohammad</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -416,7 +404,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H4"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -450,7 +438,7 @@
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="n">
-        <x:v>106</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>8</x:v>
@@ -458,65 +446,16 @@
       <x:c r="C2" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>0.916666666666667</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>0.25</x:v>
       </x:c>
-      <x:c r="G2" s="1" t="n">
-        <x:v>0.430636574074074</x:v>
+      <x:c r="G2" s="0" t="s">
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>0.0139699074074074</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:8">
-      <x:c r="A3" s="0" t="n">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="n">
-        <x:v>0.916666666666667</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="n">
-        <x:v>0.25</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="H3" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:8">
-      <x:c r="A4" s="0" t="n">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="n">
-        <x:v>0.916666666666667</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="n">
-        <x:v>0.25</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="H4" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/ImillReports/Content/shift.xlsx
+++ b/ImillReports/Content/shift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <x:si>
     <x:t>Employee Id</x:t>
   </x:si>
@@ -40,13 +40,16 @@
     <x:t>Late In</x:t>
   </x:si>
   <x:si>
+    <x:t>Sahrukh Ahmedbhai Patel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ardiya</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not Punched</x:t>
+  </x:si>
+  <x:si>
     <x:t>Ibrahim Abu Aloyoun Kamel Mohammad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ardiya</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Not Punched</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -404,7 +407,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H2"/>
+  <x:dimension ref="A1:H3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -438,7 +441,7 @@
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="n">
-        <x:v>162</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>8</x:v>
@@ -456,6 +459,29 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" s="0" t="n">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="n">
+        <x:v>0.916666666666667</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="n">
+        <x:v>0.25</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
